--- a/Manuelle Kalibrierung.xlsx
+++ b/Manuelle Kalibrierung.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\Studium\4. Semester\AnalytikV2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\AnalytikV2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACEBB77-5F53-4704-947C-1AF03E03FAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A040DED4-C410-46C8-AE38-7AA7662A48AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17970" yWindow="5130" windowWidth="21600" windowHeight="11385" xr2:uid="{DFE8C85E-67A7-48FD-AA0A-31EF262ACFEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DFE8C85E-67A7-48FD-AA0A-31EF262ACFEF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Daten 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Daten 2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,12 +42,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -96,36 +102,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -137,7 +113,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$F$4</c:f>
+              <c:f>'Daten 2'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -181,6 +157,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5771303543370679E-3"/>
+                  <c:y val="7.2390462805559347E-4"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -206,33 +188,24 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$1:$A$6</c:f>
+              <c:f>('Daten 2'!$A$1,'Daten 2'!$A$3,'Daten 2'!$A$5)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
@@ -240,27 +213,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$1:$D$6</c:f>
+              <c:f>'Daten 2'!$E$1:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>49.392600000000002</c:v>
+                  <c:v>-134.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.174399999999999</c:v>
+                  <c:v>-284.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.3284</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>107.8004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>162.38820000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>161.96799999999999</c:v>
+                  <c:v>-424.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -269,6 +233,89 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7E66-496A-A39A-999EA23536EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Daten 2'!$B$11:$B$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Daten 2'!$C$11:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>7.4874267998622113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6281-4C94-A394-940F01D87D9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Daten 2'!$B$11:$B$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Daten 2'!$D$11:$D$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6281-4C94-A394-940F01D87D9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -289,7 +336,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -338,17 +385,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1711105535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1711105535"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -400,7 +448,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1836301983"/>
@@ -448,7 +496,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1019,16 +1067,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6805</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>289833</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>125867</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1352,16 +1400,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B932FFA-BD86-4F3B-B890-2821683C33CC}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-112.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>-268.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>-266.60000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>-422.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>-416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>INTERCEPT(B1:B6,A1:A6)</f>
+        <v>-113.19166666666666</v>
+      </c>
+      <c r="E9">
+        <v>-112.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>SLOPE(B1:B6,A1:A6)</f>
+        <v>-19.165624999999999</v>
+      </c>
+      <c r="E10">
+        <v>-19.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <f>C9/C10</f>
+        <v>5.9059731507147131</v>
+      </c>
+      <c r="E12" s="1">
+        <f>E9/E10</f>
+        <v>5.7580398162327713</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75EC09A-50FE-4F9C-8FB9-E3690310268B}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1374,13 +1514,9 @@
       <c r="C1">
         <v>-129.30000000000001</v>
       </c>
-      <c r="D1">
-        <f>C1*B1</f>
-        <v>49.392600000000002</v>
-      </c>
       <c r="E1">
-        <f>B1*C1/10^9</f>
-        <v>4.9392600000000003E-8</v>
+        <f>AVERAGE(C1:C2)</f>
+        <v>-134.25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1393,9 +1529,9 @@
       <c r="C2">
         <v>-139.19999999999999</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D6" si="0">C2*B2</f>
-        <v>53.174399999999999</v>
+      <c r="E2">
+        <f>AVERAGE(C3:C4)</f>
+        <v>-284.2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1408,9 +1544,9 @@
       <c r="C3">
         <v>-286.2</v>
       </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>109.3284</v>
+      <c r="E3">
+        <f>AVERAGE(C5:C6)</f>
+        <v>-424.55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1423,10 +1559,6 @@
       <c r="C4">
         <v>-282.2</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>107.8004</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1438,10 +1570,6 @@
       <c r="C5">
         <v>-425.1</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>162.38820000000001</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1453,15 +1581,33 @@
       <c r="C6">
         <v>-424</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>161.96799999999999</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <f>SLOPE(D1:D6,A1:A6)</f>
-        <v>6.9309124999999998</v>
+      <c r="C8">
+        <f>SLOPE(C1:C6,A1:A6)</f>
+        <v>-18.143750000000001</v>
+      </c>
+      <c r="E8">
+        <v>-18.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>INTERCEPT(C1:C6,A1:A6)</f>
+        <v>-135.85</v>
+      </c>
+      <c r="E9">
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <f>C9/C8</f>
+        <v>7.4874267998622113</v>
+      </c>
+      <c r="E11" s="1">
+        <f>E9/E8</f>
+        <v>-7.1886691608765361</v>
       </c>
     </row>
   </sheetData>

--- a/Manuelle Kalibrierung.xlsx
+++ b/Manuelle Kalibrierung.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\AnalytikV2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A040DED4-C410-46C8-AE38-7AA7662A48AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAD0F73-509E-4F7F-8B3E-724D970120F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DFE8C85E-67A7-48FD-AA0A-31EF262ACFEF}"/>
+    <workbookView xWindow="9540" yWindow="2805" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{DFE8C85E-67A7-48FD-AA0A-31EF262ACFEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten 1" sheetId="2" r:id="rId1"/>
     <sheet name="Daten 2" sheetId="1" r:id="rId2"/>
+    <sheet name="Konzentration des Blei Messgerä" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,12 +32,82 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+  <si>
+    <t>Volumen</t>
+  </si>
+  <si>
+    <t>Messung 1 mg/l</t>
+  </si>
+  <si>
+    <t>Messung 2 mg/l</t>
+  </si>
+  <si>
+    <t>Masse 1 micro gramm</t>
+  </si>
+  <si>
+    <t>Masse 2 micro gramm</t>
+  </si>
+  <si>
+    <t>Konzentrationsabweichung 1</t>
+  </si>
+  <si>
+    <t>Konzentrationsabweichung 2</t>
+  </si>
+  <si>
+    <t>Konzentrationsabweichung %</t>
+  </si>
+  <si>
+    <t>Konzentrationsabweichung mg/L</t>
+  </si>
+  <si>
+    <t>Mittelwert Masse</t>
+  </si>
+  <si>
+    <t>Standardabweichung Masse</t>
+  </si>
+  <si>
+    <t>Vertrauensintervall X+-</t>
+  </si>
+  <si>
+    <t>G (1,463)</t>
+  </si>
+  <si>
+    <t>Q (0,829)</t>
+  </si>
+  <si>
+    <t>Steigung</t>
+  </si>
+  <si>
+    <t>Schnittpunkt</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -56,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -64,13 +135,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -89,6 +234,389 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68431933508311471"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12902734033245844"/>
+                  <c:y val="-4.1666666666666669E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Daten 1'!$A$1:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Daten 1'!$B$1:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-112.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-268.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-266.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-422.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FCA-4D92-8218-38997AE9D84A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="106661296"/>
+        <c:axId val="106412672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="106661296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106412672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="106412672"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106661296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -547,6 +1075,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1063,7 +1631,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{356D580E-D472-4B97-89EA-DA2FBE14589D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1404,7 +2529,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,6 +2612,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1494,8 +2620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75EC09A-50FE-4F9C-8FB9-E3690310268B}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +2723,7 @@
         <v>-135.85</v>
       </c>
       <c r="E9">
-        <v>134.5</v>
+        <v>-134.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1607,11 +2733,368 @@
       </c>
       <c r="E11" s="1">
         <f>E9/E8</f>
-        <v>-7.1886691608765361</v>
+        <v>7.1886691608765361</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B396974-5670-4F22-B6B1-EBE45B872994}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>5.7569999999999997</v>
+      </c>
+      <c r="B2">
+        <v>7.1859999999999999</v>
+      </c>
+      <c r="D2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A2*D2*10^3</f>
+        <v>143.92500000000001</v>
+      </c>
+      <c r="B5">
+        <f>B2*D2*10^3</f>
+        <v>179.65</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(A5:B5)</f>
+        <v>161.78750000000002</v>
+      </c>
+      <c r="E5" s="3">
+        <f>AVERAGE(A8:B8)</f>
+        <v>2.6404999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6">
+        <f>AVERAGE(A10:B10)</f>
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4.3569999999999998E-2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9.2399999999999999E-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <f>_xlfn.STDEV.P(A5:B5)</f>
+        <v>17.862499999999862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="5">
+        <f>4.303/SQRT(2)*D9</f>
+        <v>54.349880064098642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8">
+        <v>-139.19999999999999</v>
+      </c>
+      <c r="D15">
+        <f>(B16-B15)/(B18-B15)</f>
+        <v>0.37078651685393188</v>
+      </c>
+      <c r="E15">
+        <f>ABS(B15-AVERAGE($B$15:$B$18))/_xlfn.STDEV.P($B$15:$B$18)</f>
+        <v>1.3885380291313907</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <f>AVERAGE(B15:B18)</f>
+        <v>-123.5</v>
+      </c>
+      <c r="K15">
+        <f>_xlfn.STDEV.P(B15:B18)</f>
+        <v>11.306856327025649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>0</v>
+      </c>
+      <c r="B16" s="10">
+        <v>-129.30000000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E18" si="0">ABS(B16-AVERAGE($B$15:$B$18))/_xlfn.STDEV.P($B$15:$B$18)</f>
+        <v>0.51296309356446412</v>
+      </c>
+      <c r="G16">
+        <f>SLOPE(B15:B25,A15:A25)</f>
+        <v>-18.79276315789474</v>
+      </c>
+      <c r="H16">
+        <f>INTERCEPT(B15:B25,A15:A25)</f>
+        <v>-124.15263157894739</v>
+      </c>
+      <c r="J16">
+        <f>AVERAGE(B19:B22)</f>
+        <v>-275.79999999999995</v>
+      </c>
+      <c r="K16">
+        <f>_xlfn.STDEV.P(B19:B22)</f>
+        <v>8.5369783881652079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>0</v>
+      </c>
+      <c r="B17" s="10">
+        <v>-113</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.92864008317704538</v>
+      </c>
+      <c r="J17">
+        <f>AVERAGE(B23:B26)</f>
+        <v>-421.97500000000002</v>
+      </c>
+      <c r="K17">
+        <f>_xlfn.STDEV.P(B23:B26)</f>
+        <v>3.5442735503908329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>0</v>
+      </c>
+      <c r="B18" s="12">
+        <v>-112.5</v>
+      </c>
+      <c r="D18">
+        <f>(B18-B17)/(B18-B15)</f>
+        <v>1.8726591760299633E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.97286103951880942</v>
+      </c>
+      <c r="G18">
+        <f>H16/G16</f>
+        <v>6.6064064414493266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8">
+        <v>-286.2</v>
+      </c>
+      <c r="D19">
+        <f>(B20-B19)/(B22-B19)</f>
+        <v>0.20408163265306159</v>
+      </c>
+      <c r="E19">
+        <f>ABS(B19-AVERAGE($B$19:$B$22))/_xlfn.STDEV.P($B$19:$B$22)</f>
+        <v>1.2182296272903219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>8</v>
+      </c>
+      <c r="B20" s="10">
+        <v>-282.2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E22" si="1">ABS(B20-AVERAGE($B$19:$B$22))/_xlfn.STDEV.P($B$19:$B$22)</f>
+        <v>0.74967977064019964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>8</v>
+      </c>
+      <c r="B21" s="10">
+        <v>-268.2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.89024472763522833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>8</v>
+      </c>
+      <c r="B22" s="12">
+        <v>-266.60000000000002</v>
+      </c>
+      <c r="D22">
+        <f>(B22-B21)/(B22-B19)</f>
+        <v>8.1632653061222887E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.0776646702952732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>16</v>
+      </c>
+      <c r="B23" s="8">
+        <v>-425.1</v>
+      </c>
+      <c r="D23">
+        <f>(B24-B23)/(B26-B23)</f>
+        <v>0.12087912087912307</v>
+      </c>
+      <c r="E23">
+        <f>ABS(B23-AVERAGE($B$23:$B$26))/_xlfn.STDEV.P($B$23:$B$26)</f>
+        <v>0.88170395303020588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>16</v>
+      </c>
+      <c r="B24" s="10">
+        <v>-424</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:E26" si="2">ABS(B24-AVERAGE($B$23:$B$26))/_xlfn.STDEV.P($B$23:$B$26)</f>
+        <v>0.57134416156356704</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>16</v>
+      </c>
+      <c r="B25" s="10">
+        <v>-422.8</v>
+      </c>
+      <c r="E25">
+        <f>ABS(B25-AVERAGE($B$23:$B$26))/_xlfn.STDEV.P($B$23:$B$26)</f>
+        <v>0.23276984359997116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>16</v>
+      </c>
+      <c r="B26" s="12">
+        <v>-416</v>
+      </c>
+      <c r="D26">
+        <f>(B26-B25)/(B26-B23)</f>
+        <v>0.7472527472527466</v>
+      </c>
+      <c r="E26" s="13">
+        <f>ABS(B26-AVERAGE($B$23:$B$26))/_xlfn.STDEV.P($B$23:$B$26)</f>
+        <v>1.68581795819376</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B23:B26">
+    <sortCondition ref="B23"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Manuelle Kalibrierung.xlsx
+++ b/Manuelle Kalibrierung.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\AnalytikV2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAD0F73-509E-4F7F-8B3E-724D970120F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FC0D88-E2C9-4EF6-82F2-16C7B148A6AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="2805" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{DFE8C85E-67A7-48FD-AA0A-31EF262ACFEF}"/>
+    <workbookView xWindow="-4275" yWindow="4815" windowWidth="15375" windowHeight="7875" firstSheet="3" activeTab="3" xr2:uid="{DFE8C85E-67A7-48FD-AA0A-31EF262ACFEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten 1" sheetId="2" r:id="rId1"/>
     <sheet name="Daten 2" sheetId="1" r:id="rId2"/>
     <sheet name="Konzentration des Blei Messgerä" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Volumen</t>
   </si>
@@ -82,14 +83,23 @@
   <si>
     <t>Schnittpunkt</t>
   </si>
+  <si>
+    <t>Masse 1 mg</t>
+  </si>
+  <si>
+    <t>Masse 2 mg</t>
+  </si>
+  <si>
+    <t>Masse 3 in mg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -207,8 +217,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2621,7 +2631,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2746,8 +2756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B396974-5670-4F22-B6B1-EBE45B872994}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2973,7 +2983,10 @@
         <f t="shared" si="0"/>
         <v>0.97286103951880942</v>
       </c>
-      <c r="G18">
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5">
         <f>H16/G16</f>
         <v>6.6064064414493266</v>
       </c>
@@ -2993,6 +3006,13 @@
         <f>ABS(B19-AVERAGE($B$19:$B$22))/_xlfn.STDEV.P($B$19:$B$22)</f>
         <v>1.2182296272903219</v>
       </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <f>AVERAGE(5.757,7.186)</f>
+        <v>6.4714999999999998</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
@@ -3005,6 +3025,13 @@
         <f t="shared" ref="E20:E22" si="1">ABS(B20-AVERAGE($B$19:$B$22))/_xlfn.STDEV.P($B$19:$B$22)</f>
         <v>0.74967977064019964</v>
       </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5">
+        <f>AVERAGE(5.906,7.487)</f>
+        <v>6.6965000000000003</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
@@ -3058,7 +3085,7 @@
         <v>-424</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E26" si="2">ABS(B24-AVERAGE($B$23:$B$26))/_xlfn.STDEV.P($B$23:$B$26)</f>
+        <f t="shared" ref="E24" si="2">ABS(B24-AVERAGE($B$23:$B$26))/_xlfn.STDEV.P($B$23:$B$26)</f>
         <v>0.57134416156356704</v>
       </c>
     </row>
@@ -3097,4 +3124,114 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350D7821-F525-4C18-B9F2-68962BA4928E}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>4*'Konzentration des Blei Messgerä'!G19*25*10^-3</f>
+        <v>0.64715</v>
+      </c>
+      <c r="B2">
+        <f>4*'Konzentration des Blei Messgerä'!G20*25*10^-3</f>
+        <v>0.66965000000000008</v>
+      </c>
+      <c r="C2">
+        <f>4*'Konzentration des Blei Messgerä'!G18*25*10^-3</f>
+        <v>0.66064064414493273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2*1000</f>
+        <v>647.15</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:C3" si="0">B2*1000</f>
+        <v>669.65000000000009</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>660.64064414493271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>AVERAGE('Konzentration des Blei Messgerä'!G18:G20)</f>
+        <v>6.5914688138164417</v>
+      </c>
+      <c r="C6">
+        <f>_xlfn.STDEV.P('Konzentration des Blei Messgerä'!G18:G20)</f>
+        <v>9.2461161357887969E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>(4.303/SQRT(3))*C6</f>
+        <v>0.22970479594731549</v>
+      </c>
+      <c r="C8">
+        <f>25*10^-3</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <f>C8*4*B8</f>
+        <v>2.2970479594731551E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>B13*1000</f>
+        <v>659.14688138164422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>C8*(B6+B8)*4</f>
+        <v>0.68211736097637576</v>
+      </c>
+      <c r="E11">
+        <f>D8*1000</f>
+        <v>22.97047959473155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>C8*(B6-B8)*4</f>
+        <v>0.6361764017869127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>C8*(B6-B9)*4</f>
+        <v>0.65914688138164423</v>
+      </c>
+      <c r="C13">
+        <f>B13+D8</f>
+        <v>0.68211736097637576</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Manuelle Kalibrierung.xlsx
+++ b/Manuelle Kalibrierung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\AnalytikV2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FC0D88-E2C9-4EF6-82F2-16C7B148A6AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFADA70-AD4A-4475-A01F-9C645E759D39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4275" yWindow="4815" windowWidth="15375" windowHeight="7875" firstSheet="3" activeTab="3" xr2:uid="{DFE8C85E-67A7-48FD-AA0A-31EF262ACFEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{DFE8C85E-67A7-48FD-AA0A-31EF262ACFEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten 1" sheetId="2" r:id="rId1"/>
@@ -3131,7 +3131,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3181,14 +3181,14 @@
         <v>6.5914688138164417</v>
       </c>
       <c r="C6">
-        <f>_xlfn.STDEV.P('Konzentration des Blei Messgerä'!G18:G20)</f>
-        <v>9.2461161357887969E-2</v>
+        <f>STDEV('Konzentration des Blei Messgerä'!G18:G20)</f>
+        <v>0.11324133317598346</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>(4.303/SQRT(3))*C6</f>
-        <v>0.22970479594731549</v>
+        <v>0.28132977077052612</v>
       </c>
       <c r="C8">
         <f>25*10^-3</f>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="D8">
         <f>C8*4*B8</f>
-        <v>2.2970479594731551E-2</v>
+        <v>2.8132977077052614E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3208,17 +3208,17 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>C8*(B6+B8)*4</f>
-        <v>0.68211736097637576</v>
+        <v>0.68727985845869677</v>
       </c>
       <c r="E11">
         <f>D8*1000</f>
-        <v>22.97047959473155</v>
+        <v>28.132977077052615</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>C8*(B6-B8)*4</f>
-        <v>0.6361764017869127</v>
+        <v>0.63101390430459159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="C13">
         <f>B13+D8</f>
-        <v>0.68211736097637576</v>
+        <v>0.68727985845869688</v>
       </c>
     </row>
   </sheetData>
